--- a/Docs/Tablas Lab 4.xlsx
+++ b/Docs/Tablas Lab 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 04 - Ordenamientos Iterativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a89d92c1b359bf6f/Documents/Andes/Semestre 2/Estructura de Datos/Lab4/ISIS1225-SampleSorts/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="178" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E197636-5D23-49AC-AB0F-C814FF421F77}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7330,7 +7330,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7473,7 +7473,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7831,15 +7831,15 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
@@ -8191,12 +8191,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8411,15 +8408,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8444,10 +8445,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>